--- a/app/config/tables/CRIANCA_HOSP/forms/CRIANCA_HOSP/CRIANCA_HOSP.xlsx
+++ b/app/config/tables/CRIANCA_HOSP/forms/CRIANCA_HOSP/CRIANCA_HOSP.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B107F8E2-0E7E-4583-9E32-FA4D48922A27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B864527-7298-4DDA-A462-B95F596EBD5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="137">
   <si>
     <t>setting_name</t>
   </si>
@@ -384,9 +384,6 @@
     <t>Pape decidiu levar a crianca ao hospital?</t>
   </si>
   <si>
-    <t>REGID</t>
-  </si>
-  <si>
     <t>VISITDATE</t>
   </si>
   <si>
@@ -442,6 +439,9 @@
   </si>
   <si>
     <t>Quem</t>
+  </si>
+  <si>
+    <t>REGIDC</t>
   </si>
 </sst>
 </file>
@@ -1025,11 +1025,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F8"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,16 +1090,16 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1108,7 +1108,7 @@
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1117,13 +1117,13 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" t="s">
         <v>134</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>135</v>
-      </c>
-      <c r="H5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1138,7 +1138,7 @@
         <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1147,13 +1147,13 @@
         <v>50</v>
       </c>
       <c r="F8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" t="s">
         <v>124</v>
       </c>
-      <c r="G8" t="s">
-        <v>125</v>
-      </c>
       <c r="H8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1207,7 +1207,7 @@
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
         <v>108</v>
@@ -1480,101 +1480,115 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="D41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" t="s">
-        <v>97</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>115</v>
-      </c>
+      <c r="A41" s="21"/>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
+      <c r="A42" s="21"/>
       <c r="B42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" t="s">
-        <v>99</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="H42" s="16"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
+        <v>55</v>
       </c>
       <c r="F43" t="s">
-        <v>100</v>
-      </c>
-      <c r="G43" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" t="s">
+        <v>98</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="D47" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" t="s">
-        <v>102</v>
-      </c>
-      <c r="G47" t="s">
-        <v>101</v>
-      </c>
-      <c r="H47" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
-      <c r="D48" t="s">
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49" t="s">
+        <v>101</v>
+      </c>
+      <c r="H49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="D50" t="s">
         <v>22</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E50" t="s">
         <v>55</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F50" t="s">
         <v>104</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G50" t="s">
         <v>103</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H50" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1738,7 +1752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
@@ -1812,92 +1826,92 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1910,9 +1924,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,10 +1949,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1946,7 +1960,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -1957,7 +1971,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1968,10 +1982,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1979,10 +1993,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1990,7 +2004,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -2001,7 +2015,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -2012,7 +2026,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
@@ -2023,7 +2037,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -2034,10 +2048,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -2045,7 +2059,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -2056,7 +2070,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
@@ -2067,7 +2081,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
@@ -2078,10 +2092,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -2089,7 +2103,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -2100,7 +2114,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -2111,10 +2125,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -2122,7 +2136,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>50</v>
@@ -2133,10 +2147,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -2147,7 +2161,7 @@
         <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -2176,8 +2190,8 @@
       <c r="B30" s="14"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C24">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:C22">
+    <sortCondition ref="A20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
